--- a/data/full_data/ice clear europe.xlsx
+++ b/data/full_data/ice clear europe.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>CCP</t>
   </si>
@@ -122,6 +122,9 @@
     <t>Q1-2017</t>
   </si>
   <si>
+    <t>Q2-2016</t>
+  </si>
+  <si>
     <t>Q4-2017</t>
   </si>
   <si>
@@ -131,7 +134,13 @@
     <t>Q3-2017</t>
   </si>
   <si>
+    <t>Q4-2015</t>
+  </si>
+  <si>
     <t>Q2-2017</t>
+  </si>
+  <si>
+    <t>Q1-2016</t>
   </si>
   <si>
     <t>Q2-2018</t>
@@ -483,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,7 +1116,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>83381972</v>
+        <v>90073860</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1116,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1917785374</v>
+        <v>1666366420</v>
       </c>
       <c r="I8" t="n">
-        <v>1977117102</v>
+        <v>1728696812</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1128,30 +1137,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3835570749</v>
+        <v>3332732840</v>
       </c>
       <c r="M8" t="s"/>
       <c r="N8" t="n">
         <v>0</v>
       </c>
-      <c r="O8" t="n">
-        <v>2001167347</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1381533251</v>
-      </c>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>24128004811</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>28660265832</v>
-      </c>
-      <c r="S8" t="n">
-        <v>31941537037</v>
-      </c>
-      <c r="T8" t="n">
-        <v>30866725010</v>
-      </c>
+        <v>34405787647</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>72</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>31</v>
       </c>
       <c r="Y8" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1194,19 +1195,19 @@
         <v>32</v>
       </c>
       <c r="E9" t="n">
-        <v>41656252</v>
+        <v>22508328</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>22508328</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>804593824</v>
+        <v>973277475</v>
       </c>
       <c r="I9" t="n">
-        <v>812792473</v>
+        <v>993159372</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1215,30 +1216,26 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>804593824</v>
+        <v>973277475</v>
       </c>
       <c r="M9" t="s"/>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>132223397</v>
+        <v>160782997</v>
       </c>
       <c r="P9" t="n">
-        <v>29276556</v>
+        <v>62273368</v>
       </c>
       <c r="Q9" t="n">
-        <v>882528135</v>
+        <v>284724655</v>
       </c>
       <c r="R9" t="n">
-        <v>5390428374</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5890760105</v>
-      </c>
-      <c r="T9" t="n">
-        <v>5729061222</v>
-      </c>
+        <v>7016438114</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>22</v>
       </c>
@@ -1252,10 +1249,10 @@
         <v>31</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
-        <v>6613914420</v>
+        <v>10657801843</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -1279,7 +1276,7 @@
         <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>89597706</v>
+        <v>83381972</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1288,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1388764447</v>
+        <v>1917785374</v>
       </c>
       <c r="I10" t="n">
-        <v>1490240549</v>
+        <v>1977117102</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1300,26 +1297,30 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2777528895</v>
+        <v>3835570749</v>
       </c>
       <c r="M10" t="s"/>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1633273934</v>
+        <v>2001167347</v>
       </c>
       <c r="P10" t="n">
-        <v>1037895245</v>
+        <v>1381533251</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>24128004811</v>
       </c>
       <c r="R10" t="n">
-        <v>35772279763</v>
-      </c>
-      <c r="S10" t="s"/>
-      <c r="T10" t="s"/>
+        <v>28660265832</v>
+      </c>
+      <c r="S10" t="n">
+        <v>31941537037</v>
+      </c>
+      <c r="T10" t="n">
+        <v>30866725010</v>
+      </c>
       <c r="U10" t="n">
         <v>72</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>31</v>
       </c>
       <c r="Y10" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1362,19 +1363,19 @@
         <v>32</v>
       </c>
       <c r="E11" t="n">
-        <v>22245951</v>
+        <v>41656252</v>
       </c>
       <c r="F11" t="n">
-        <v>22245951</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1039176314</v>
+        <v>804593824</v>
       </c>
       <c r="I11" t="n">
-        <v>1059575724</v>
+        <v>812792473</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1383,26 +1384,30 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1039176314</v>
+        <v>804593824</v>
       </c>
       <c r="M11" t="s"/>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>160782997</v>
+        <v>132223397</v>
       </c>
       <c r="P11" t="n">
-        <v>70209452</v>
+        <v>29276556</v>
       </c>
       <c r="Q11" t="n">
-        <v>323748668</v>
+        <v>882528135</v>
       </c>
       <c r="R11" t="n">
-        <v>6119734744</v>
-      </c>
-      <c r="S11" t="s"/>
-      <c r="T11" t="s"/>
+        <v>5390428374</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5890760105</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5729061222</v>
+      </c>
       <c r="U11" t="n">
         <v>22</v>
       </c>
@@ -1416,10 +1421,10 @@
         <v>31</v>
       </c>
       <c r="Y11" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>4866132931</v>
+        <v>6613914420</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -1443,7 +1448,7 @@
         <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>84702693</v>
+        <v>89597706</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1452,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1948161951</v>
+        <v>1388764447</v>
       </c>
       <c r="I12" t="n">
-        <v>1996003426</v>
+        <v>1490240549</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1464,32 +1469,28 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3896323903</v>
+        <v>2777528895</v>
       </c>
       <c r="M12" t="s"/>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>2032864645</v>
+        <v>1633273934</v>
       </c>
       <c r="P12" t="n">
-        <v>1239693751</v>
+        <v>1037895245</v>
       </c>
       <c r="Q12" t="n">
-        <v>25086743209</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29599092954</v>
-      </c>
-      <c r="S12" t="n">
-        <v>33660468343</v>
-      </c>
-      <c r="T12" t="n">
-        <v>32414705667</v>
-      </c>
+        <v>35772279763</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1501,7 +1502,7 @@
         <v>31</v>
       </c>
       <c r="Y12" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -1530,19 +1531,19 @@
         <v>32</v>
       </c>
       <c r="E13" t="n">
-        <v>42326250</v>
+        <v>22245951</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>22245951</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>814009255</v>
+        <v>1039176314</v>
       </c>
       <c r="I13" t="n">
-        <v>815801659</v>
+        <v>1059575724</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1551,30 +1552,26 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>814009255</v>
+        <v>1039176314</v>
       </c>
       <c r="M13" t="s"/>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>132223397</v>
+        <v>160782997</v>
       </c>
       <c r="P13" t="n">
-        <v>39763128</v>
+        <v>70209452</v>
       </c>
       <c r="Q13" t="n">
-        <v>886730990</v>
+        <v>323748668</v>
       </c>
       <c r="R13" t="n">
-        <v>5681212953</v>
-      </c>
-      <c r="S13" t="n">
-        <v>6359304395</v>
-      </c>
-      <c r="T13" t="n">
-        <v>6191871198</v>
-      </c>
+        <v>6119734744</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>22</v>
       </c>
@@ -1588,10 +1585,10 @@
         <v>31</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Z13" t="n">
-        <v>8013302806</v>
+        <v>4866132931</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1615,7 +1612,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>87627059</v>
+        <v>84702693</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1664914125</v>
+        <v>1948161951</v>
       </c>
       <c r="I14" t="n">
-        <v>1838796485</v>
+        <v>1996003426</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1636,29 +1633,29 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3329828250</v>
+        <v>3896323903</v>
       </c>
       <c r="M14" t="s"/>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1716927921</v>
+        <v>2032864645</v>
       </c>
       <c r="P14" t="n">
-        <v>1112962411</v>
+        <v>1239693751</v>
       </c>
       <c r="Q14" t="n">
-        <v>27754775670</v>
+        <v>25086743209</v>
       </c>
       <c r="R14" t="n">
-        <v>33483456745</v>
+        <v>29599092954</v>
       </c>
       <c r="S14" t="n">
-        <v>36824759013</v>
+        <v>33660468343</v>
       </c>
       <c r="T14" t="n">
-        <v>35529327736</v>
+        <v>32414705667</v>
       </c>
       <c r="U14" t="n">
         <v>73</v>
@@ -1673,7 +1670,7 @@
         <v>31</v>
       </c>
       <c r="Y14" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -1702,19 +1699,19 @@
         <v>32</v>
       </c>
       <c r="E15" t="n">
-        <v>28881498</v>
+        <v>42326250</v>
       </c>
       <c r="F15" t="n">
-        <v>14878347</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>825518577</v>
+        <v>814009255</v>
       </c>
       <c r="I15" t="n">
-        <v>843582482</v>
+        <v>815801659</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1723,29 +1720,29 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>825518577</v>
+        <v>814009255</v>
       </c>
       <c r="M15" t="s"/>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>130723166</v>
+        <v>132223397</v>
       </c>
       <c r="P15" t="n">
-        <v>50980790</v>
+        <v>39763128</v>
       </c>
       <c r="Q15" t="n">
-        <v>504492938</v>
+        <v>886730990</v>
       </c>
       <c r="R15" t="n">
-        <v>5078036728</v>
+        <v>5681212953</v>
       </c>
       <c r="S15" t="n">
-        <v>5667762613</v>
+        <v>6359304395</v>
       </c>
       <c r="T15" t="n">
-        <v>5515270678</v>
+        <v>6191871198</v>
       </c>
       <c r="U15" t="n">
         <v>22</v>
@@ -1760,10 +1757,10 @@
         <v>31</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>6594303153</v>
+        <v>8013302806</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -1787,7 +1784,7 @@
         <v>30</v>
       </c>
       <c r="E16" t="n">
-        <v>133813690</v>
+        <v>91852668</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1796,10 +1793,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2401784182</v>
+        <v>1707165908</v>
       </c>
       <c r="I16" t="n">
-        <v>2461554307</v>
+        <v>1755379393</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1808,30 +1805,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>4803568365</v>
+        <v>3414331817</v>
       </c>
       <c r="M16" t="s"/>
       <c r="N16" t="n">
         <v>0</v>
       </c>
-      <c r="O16" t="n">
-        <v>2214878269</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1633549570</v>
-      </c>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
       <c r="Q16" t="n">
-        <v>26520160759</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>30730393198</v>
-      </c>
-      <c r="S16" t="n">
-        <v>33820763848</v>
-      </c>
-      <c r="T16" t="n">
-        <v>32608477531</v>
-      </c>
+        <v>37121934837</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>73</v>
       </c>
@@ -1845,7 +1834,7 @@
         <v>31</v>
       </c>
       <c r="Y16" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -1874,19 +1863,19 @@
         <v>32</v>
       </c>
       <c r="E17" t="n">
-        <v>42793563</v>
+        <v>22956841</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>22956841</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>932448834</v>
+        <v>843166303</v>
       </c>
       <c r="I17" t="n">
-        <v>949660149</v>
+        <v>855078752</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,30 +1884,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>932448834</v>
+        <v>843166303</v>
       </c>
       <c r="M17" t="s"/>
       <c r="N17" t="n">
         <v>0</v>
       </c>
-      <c r="O17" t="n">
-        <v>25791339</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2842484</v>
-      </c>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
       <c r="Q17" t="n">
-        <v>1115547629</v>
+        <v>270072534</v>
       </c>
       <c r="R17" t="n">
-        <v>5902564327</v>
-      </c>
-      <c r="S17" t="n">
-        <v>6757131308</v>
-      </c>
-      <c r="T17" t="n">
-        <v>6568205682</v>
-      </c>
+        <v>6053614803</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>22</v>
       </c>
@@ -1932,16 +1913,516 @@
         <v>31</v>
       </c>
       <c r="Y17" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Z17" t="n">
-        <v>8226161085</v>
+        <v>8669177383</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
       <c r="AB17" t="s"/>
       <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="n">
+        <v>87627059</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1664914125</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1838796485</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3329828250</v>
+      </c>
+      <c r="M18" t="s"/>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1716927921</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1112962411</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>27754775670</v>
+      </c>
+      <c r="R18" t="n">
+        <v>33483456745</v>
+      </c>
+      <c r="S18" t="n">
+        <v>36824759013</v>
+      </c>
+      <c r="T18" t="n">
+        <v>35529327736</v>
+      </c>
+      <c r="U18" t="n">
+        <v>73</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="n">
+        <v>28881498</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14878347</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>825518577</v>
+      </c>
+      <c r="I19" t="n">
+        <v>843582482</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>825518577</v>
+      </c>
+      <c r="M19" t="s"/>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>130723166</v>
+      </c>
+      <c r="P19" t="n">
+        <v>50980790</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>504492938</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5078036728</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5667762613</v>
+      </c>
+      <c r="T19" t="n">
+        <v>5515270678</v>
+      </c>
+      <c r="U19" t="n">
+        <v>22</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>6594303153</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="s"/>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="n">
+        <v>87834870</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1624945103</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1675297057</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3249890206</v>
+      </c>
+      <c r="M20" t="s"/>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>35264934167</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>73</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>62</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="n">
+        <v>21968365</v>
+      </c>
+      <c r="F21" t="n">
+        <v>21968365</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1125918062</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1139429731</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1125918062</v>
+      </c>
+      <c r="M21" t="s"/>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>262851164</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6382175808</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>22</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>11076652084</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="s"/>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="n">
+        <v>133813690</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2401784182</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2461554307</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4803568365</v>
+      </c>
+      <c r="M22" t="s"/>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2214878269</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1633549570</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>26520160759</v>
+      </c>
+      <c r="R22" t="n">
+        <v>30730393198</v>
+      </c>
+      <c r="S22" t="n">
+        <v>33820763848</v>
+      </c>
+      <c r="T22" t="n">
+        <v>32608477531</v>
+      </c>
+      <c r="U22" t="n">
+        <v>73</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>63</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="n">
+        <v>42793563</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>932448834</v>
+      </c>
+      <c r="I23" t="n">
+        <v>949660149</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>932448834</v>
+      </c>
+      <c r="M23" t="s"/>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>25791339</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2842484</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1115547629</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5902564327</v>
+      </c>
+      <c r="S23" t="n">
+        <v>6757131308</v>
+      </c>
+      <c r="T23" t="n">
+        <v>6568205682</v>
+      </c>
+      <c r="U23" t="n">
+        <v>22</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>8226161085</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="s"/>
+      <c r="AC23" t="n">
         <v>0</v>
       </c>
     </row>
